--- a/team_specific_matrix/Lafayette_B.xlsx
+++ b/team_specific_matrix/Lafayette_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1896551724137931</v>
+        <v>0.2035087719298246</v>
       </c>
       <c r="C2">
-        <v>0.5689655172413793</v>
+        <v>0.5403508771929825</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008620689655172414</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1336206896551724</v>
+        <v>0.143859649122807</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09913793103448276</v>
+        <v>0.1017543859649123</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0425531914893617</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7943262411347518</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1631205673758865</v>
+        <v>0.1696969696969697</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5882352941176471</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4117647058823529</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06557377049180328</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.00546448087431694</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="F6">
-        <v>0.08196721311475409</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2240437158469945</v>
+        <v>0.2378854625550661</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03278688524590164</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1420765027322404</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="R6">
-        <v>0.03825136612021858</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="S6">
-        <v>0.4098360655737705</v>
+        <v>0.4096916299559472</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1132075471698113</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02830188679245283</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04716981132075472</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1320754716981132</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1415094339622641</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="R7">
-        <v>0.1037735849056604</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="S7">
-        <v>0.4339622641509434</v>
+        <v>0.4418604651162791</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08333333333333333</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01075268817204301</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E8">
-        <v>0.002688172043010753</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="F8">
-        <v>0.05376344086021505</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1397849462365591</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03494623655913978</v>
+        <v>0.03170731707317073</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1720430107526882</v>
+        <v>0.1731707317073171</v>
       </c>
       <c r="R8">
-        <v>0.1021505376344086</v>
+        <v>0.1048780487804878</v>
       </c>
       <c r="S8">
-        <v>0.4005376344086021</v>
+        <v>0.4024390243902439</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0963855421686747</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04216867469879518</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="E9">
-        <v>0.006024096385542169</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="F9">
-        <v>0.0783132530120482</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08433734939759036</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01204819277108434</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1204819277108434</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="R9">
-        <v>0.1385542168674699</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="S9">
-        <v>0.4216867469879518</v>
+        <v>0.3917525773195876</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1017857142857143</v>
+        <v>0.1076335877862595</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01964285714285714</v>
+        <v>0.02061068702290076</v>
       </c>
       <c r="E10">
-        <v>0.0008928571428571428</v>
+        <v>0.0007633587786259542</v>
       </c>
       <c r="F10">
-        <v>0.07946428571428571</v>
+        <v>0.07862595419847328</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1205357142857143</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02321428571428572</v>
+        <v>0.02366412213740458</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1883928571428571</v>
+        <v>0.1961832061068702</v>
       </c>
       <c r="R10">
-        <v>0.08214285714285714</v>
+        <v>0.08091603053435115</v>
       </c>
       <c r="S10">
-        <v>0.3839285714285715</v>
+        <v>0.3770992366412214</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1396648044692737</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0893854748603352</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="K11">
-        <v>0.1955307262569832</v>
+        <v>0.2036199095022624</v>
       </c>
       <c r="L11">
-        <v>0.5586592178770949</v>
+        <v>0.5520361990950227</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01675977653631285</v>
+        <v>0.01809954751131222</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6831683168316832</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2475247524752475</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="K12">
-        <v>0.009900990099009901</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="L12">
-        <v>0.0297029702970297</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0297029702970297</v>
+        <v>0.04098360655737705</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6071428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3928571428571428</v>
+        <v>0.34375</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009049773755656109</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1538461538461539</v>
+        <v>0.1462450592885375</v>
       </c>
       <c r="I15">
-        <v>0.06334841628959276</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="J15">
-        <v>0.4072398190045249</v>
+        <v>0.4229249011857708</v>
       </c>
       <c r="K15">
-        <v>0.03619909502262444</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004524886877828055</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05882352941176471</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2669683257918552</v>
+        <v>0.2490118577075099</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006024096385542169</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2108433734939759</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="I16">
-        <v>0.05421686746987952</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J16">
-        <v>0.4156626506024096</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="K16">
-        <v>0.09036144578313253</v>
+        <v>0.09595959595959595</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01807228915662651</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N16">
-        <v>0.006024096385542169</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="O16">
-        <v>0.06626506024096386</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1325301204819277</v>
+        <v>0.1313131313131313</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006006006006006006</v>
+        <v>0.01496259351620948</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2072072072072072</v>
+        <v>0.1945137157107232</v>
       </c>
       <c r="I17">
-        <v>0.0960960960960961</v>
+        <v>0.09725685785536159</v>
       </c>
       <c r="J17">
-        <v>0.3903903903903904</v>
+        <v>0.3990024937655861</v>
       </c>
       <c r="K17">
-        <v>0.07207207207207207</v>
+        <v>0.08478802992518704</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01801801801801802</v>
+        <v>0.01496259351620948</v>
       </c>
       <c r="N17">
-        <v>0.003003003003003003</v>
+        <v>0.002493765586034913</v>
       </c>
       <c r="O17">
-        <v>0.06906906906906907</v>
+        <v>0.0598503740648379</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1381381381381381</v>
+        <v>0.1321695760598504</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01764705882352941</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1764705882352941</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="I18">
-        <v>0.09411764705882353</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="J18">
-        <v>0.4941176470588236</v>
+        <v>0.4974358974358974</v>
       </c>
       <c r="K18">
-        <v>0.04117647058823529</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01764705882352941</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07058823529411765</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08823529411764706</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01319509896324222</v>
+        <v>0.01883701883701884</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1922714420358153</v>
+        <v>0.1850941850941851</v>
       </c>
       <c r="I19">
-        <v>0.09048067860508954</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="J19">
-        <v>0.4288407163053723</v>
+        <v>0.4266994266994267</v>
       </c>
       <c r="K19">
-        <v>0.08199811498586239</v>
+        <v>0.0819000819000819</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01602262016965127</v>
+        <v>0.0171990171990172</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08199811498586239</v>
+        <v>0.08517608517608517</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09519321394910461</v>
+        <v>0.095004095004095</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Lafayette_B.xlsx
+++ b/team_specific_matrix/Lafayette_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2035087719298246</v>
+        <v>0.2013201320132013</v>
       </c>
       <c r="C2">
-        <v>0.5403508771929825</v>
+        <v>0.5412541254125413</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01052631578947368</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.143859649122807</v>
+        <v>0.1419141914191419</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1017543859649123</v>
+        <v>0.1056105610561056</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04242424242424243</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7878787878787878</v>
+        <v>0.7885714285714286</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1696969696969697</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05286343612334802</v>
+        <v>0.05306122448979592</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="E6">
-        <v>0.004405286343612335</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="F6">
-        <v>0.08370044052863436</v>
+        <v>0.07755102040816327</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2378854625550661</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02643171806167401</v>
+        <v>0.02448979591836735</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1409691629955947</v>
+        <v>0.1306122448979592</v>
       </c>
       <c r="R6">
-        <v>0.04405286343612335</v>
+        <v>0.04897959183673469</v>
       </c>
       <c r="S6">
-        <v>0.4096916299559472</v>
+        <v>0.4122448979591837</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.124031007751938</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02325581395348837</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04651162790697674</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.124031007751938</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007751937984496124</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1472868217054264</v>
+        <v>0.15</v>
       </c>
       <c r="R7">
-        <v>0.08527131782945736</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S7">
-        <v>0.4418604651162791</v>
+        <v>0.4357142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08780487804878048</v>
+        <v>0.09382151029748284</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01219512195121951</v>
+        <v>0.011441647597254</v>
       </c>
       <c r="E8">
-        <v>0.002439024390243902</v>
+        <v>0.002288329519450801</v>
       </c>
       <c r="F8">
-        <v>0.04878048780487805</v>
+        <v>0.05034324942791762</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1365853658536585</v>
+        <v>0.1350114416475973</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03170731707317073</v>
+        <v>0.02974828375286041</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1731707317073171</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R8">
-        <v>0.1048780487804878</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S8">
-        <v>0.4024390243902439</v>
+        <v>0.3981693363844394</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08762886597938144</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04639175257731959</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="E9">
-        <v>0.005154639175257732</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="F9">
-        <v>0.08247422680412371</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09278350515463918</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02577319587628866</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.134020618556701</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="R9">
-        <v>0.134020618556701</v>
+        <v>0.1394230769230769</v>
       </c>
       <c r="S9">
-        <v>0.3917525773195876</v>
+        <v>0.3942307692307692</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1076335877862595</v>
+        <v>0.1044460127028934</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02061068702290076</v>
+        <v>0.01976005645730416</v>
       </c>
       <c r="E10">
-        <v>0.0007633587786259542</v>
+        <v>0.0007057163020465773</v>
       </c>
       <c r="F10">
-        <v>0.07862595419847328</v>
+        <v>0.08045165843330981</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1145038167938931</v>
+        <v>0.118560338743825</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02366412213740458</v>
+        <v>0.02328863796753705</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1961832061068702</v>
+        <v>0.1968948482709951</v>
       </c>
       <c r="R10">
-        <v>0.08091603053435115</v>
+        <v>0.07904022582921666</v>
       </c>
       <c r="S10">
-        <v>0.3770992366412214</v>
+        <v>0.3768525052928723</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1357466063348416</v>
+        <v>0.1375</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09049773755656108</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="K11">
-        <v>0.2036199095022624</v>
+        <v>0.2041666666666667</v>
       </c>
       <c r="L11">
-        <v>0.5520361990950227</v>
+        <v>0.5458333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01809954751131222</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6885245901639344</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2377049180327869</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="K12">
-        <v>0.00819672131147541</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="L12">
-        <v>0.02459016393442623</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04098360655737705</v>
+        <v>0.03787878787878788</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.34375</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007905138339920948</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1462450592885375</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="I15">
-        <v>0.05928853754940711</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="J15">
-        <v>0.4229249011857708</v>
+        <v>0.4291044776119403</v>
       </c>
       <c r="K15">
-        <v>0.04347826086956522</v>
+        <v>0.04104477611940299</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.003952569169960474</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06719367588932806</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2490118577075099</v>
+        <v>0.2425373134328358</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0101010101010101</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1919191919191919</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="I16">
-        <v>0.06060606060606061</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J16">
-        <v>0.4343434343434344</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="K16">
-        <v>0.09595959595959595</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01515151515151515</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N16">
-        <v>0.005050505050505051</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.05238095238095238</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1313131313131313</v>
+        <v>0.1380952380952381</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01496259351620948</v>
+        <v>0.01392111368909513</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1945137157107232</v>
+        <v>0.1879350348027842</v>
       </c>
       <c r="I17">
-        <v>0.09725685785536159</v>
+        <v>0.09744779582366589</v>
       </c>
       <c r="J17">
-        <v>0.3990024937655861</v>
+        <v>0.4106728538283063</v>
       </c>
       <c r="K17">
-        <v>0.08478802992518704</v>
+        <v>0.08584686774941995</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01496259351620948</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="N17">
-        <v>0.002493765586034913</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="O17">
-        <v>0.0598503740648379</v>
+        <v>0.06032482598607888</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1321695760598504</v>
+        <v>0.1252900232018561</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02564102564102564</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1641025641025641</v>
+        <v>0.1770334928229665</v>
       </c>
       <c r="I18">
-        <v>0.09743589743589744</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="J18">
-        <v>0.4974358974358974</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="K18">
-        <v>0.04615384615384616</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01538461538461539</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06153846153846154</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09230769230769231</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01883701883701884</v>
+        <v>0.01905487804878049</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1850941850941851</v>
+        <v>0.1836890243902439</v>
       </c>
       <c r="I19">
-        <v>0.09009009009009009</v>
+        <v>0.09070121951219512</v>
       </c>
       <c r="J19">
-        <v>0.4266994266994267</v>
+        <v>0.4253048780487805</v>
       </c>
       <c r="K19">
-        <v>0.0819000819000819</v>
+        <v>0.08384146341463415</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0171990171990172</v>
+        <v>0.01676829268292683</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08517608517608517</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.095004095004095</v>
+        <v>0.09527439024390244</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Lafayette_B.xlsx
+++ b/team_specific_matrix/Lafayette_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2013201320132013</v>
+        <v>0.1967741935483871</v>
       </c>
       <c r="C2">
-        <v>0.5412541254125413</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009900990099009901</v>
+        <v>0.00967741935483871</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1419141914191419</v>
+        <v>0.1419354838709677</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1056105610561056</v>
+        <v>0.1032258064516129</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7885714285714286</v>
+        <v>0.7790055248618785</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1714285714285714</v>
+        <v>0.1823204419889503</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P4">
-        <v>0.6818181818181818</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3181818181818182</v>
+        <v>0.3191489361702128</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05306122448979592</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004081632653061225</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="E6">
-        <v>0.004081632653061225</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="F6">
-        <v>0.07755102040816327</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2448979591836735</v>
+        <v>0.2440944881889764</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02448979591836735</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1306122448979592</v>
+        <v>0.1299212598425197</v>
       </c>
       <c r="R6">
-        <v>0.04897959183673469</v>
+        <v>0.04724409448818898</v>
       </c>
       <c r="S6">
-        <v>0.4122448979591837</v>
+        <v>0.4133858267716535</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1214285714285714</v>
+        <v>0.1197183098591549</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02142857142857143</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04285714285714286</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1357142857142857</v>
+        <v>0.147887323943662</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007142857142857143</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.15</v>
+        <v>0.147887323943662</v>
       </c>
       <c r="R7">
-        <v>0.08571428571428572</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="S7">
-        <v>0.4357142857142857</v>
+        <v>0.4295774647887324</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09382151029748284</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.011441647597254</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E8">
-        <v>0.002288329519450801</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="F8">
-        <v>0.05034324942791762</v>
+        <v>0.05111111111111111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1350114416475973</v>
+        <v>0.14</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02974828375286041</v>
+        <v>0.02888888888888889</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1739130434782609</v>
+        <v>0.1711111111111111</v>
       </c>
       <c r="R8">
-        <v>0.1052631578947368</v>
+        <v>0.1044444444444445</v>
       </c>
       <c r="S8">
-        <v>0.3981693363844394</v>
+        <v>0.3955555555555555</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08653846153846154</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04326923076923077</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="E9">
-        <v>0.004807692307692308</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="F9">
-        <v>0.08173076923076923</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09615384615384616</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02403846153846154</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1298076923076923</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="R9">
-        <v>0.1394230769230769</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="S9">
-        <v>0.3942307692307692</v>
+        <v>0.3953488372093023</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1044460127028934</v>
+        <v>0.1037542662116041</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01976005645730416</v>
+        <v>0.0204778156996587</v>
       </c>
       <c r="E10">
-        <v>0.0007057163020465773</v>
+        <v>0.0006825938566552901</v>
       </c>
       <c r="F10">
-        <v>0.08045165843330981</v>
+        <v>0.07986348122866894</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.118560338743825</v>
+        <v>0.1194539249146758</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02328863796753705</v>
+        <v>0.02389078498293516</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1968948482709951</v>
+        <v>0.1979522184300341</v>
       </c>
       <c r="R10">
-        <v>0.07904022582921666</v>
+        <v>0.07781569965870307</v>
       </c>
       <c r="S10">
-        <v>0.3768525052928723</v>
+        <v>0.3761092150170648</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1375</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09166666666666666</v>
+        <v>0.08979591836734693</v>
       </c>
       <c r="K11">
-        <v>0.2041666666666667</v>
+        <v>0.2081632653061224</v>
       </c>
       <c r="L11">
-        <v>0.5458333333333333</v>
+        <v>0.5387755102040817</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6818181818181818</v>
+        <v>0.6766917293233082</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2424242424242424</v>
+        <v>0.2481203007518797</v>
       </c>
       <c r="K12">
-        <v>0.007575757575757576</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="L12">
-        <v>0.0303030303030303</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03787878787878788</v>
+        <v>0.03759398496240601</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007462686567164179</v>
+        <v>0.01079136690647482</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1492537313432836</v>
+        <v>0.1510791366906475</v>
       </c>
       <c r="I15">
-        <v>0.05970149253731343</v>
+        <v>0.05755395683453238</v>
       </c>
       <c r="J15">
-        <v>0.4291044776119403</v>
+        <v>0.4244604316546763</v>
       </c>
       <c r="K15">
-        <v>0.04104477611940299</v>
+        <v>0.039568345323741</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.003731343283582089</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06716417910447761</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2425373134328358</v>
+        <v>0.2410071942446043</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01428571428571429</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1857142857142857</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="I16">
-        <v>0.05714285714285714</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="J16">
-        <v>0.4428571428571428</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="K16">
-        <v>0.09047619047619047</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01428571428571429</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="N16">
-        <v>0.004761904761904762</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="O16">
-        <v>0.05238095238095238</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1380952380952381</v>
+        <v>0.1395348837209302</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01392111368909513</v>
+        <v>0.01348314606741573</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1879350348027842</v>
+        <v>0.1865168539325843</v>
       </c>
       <c r="I17">
-        <v>0.09744779582366589</v>
+        <v>0.09438202247191012</v>
       </c>
       <c r="J17">
-        <v>0.4106728538283063</v>
+        <v>0.4134831460674157</v>
       </c>
       <c r="K17">
-        <v>0.08584686774941995</v>
+        <v>0.08314606741573034</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01624129930394431</v>
+        <v>0.01573033707865169</v>
       </c>
       <c r="N17">
-        <v>0.002320185614849188</v>
+        <v>0.002247191011235955</v>
       </c>
       <c r="O17">
-        <v>0.06032482598607888</v>
+        <v>0.06067415730337079</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1252900232018561</v>
+        <v>0.1303370786516854</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02392344497607655</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1770334928229665</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="I18">
-        <v>0.09569377990430622</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="J18">
-        <v>0.4736842105263158</v>
+        <v>0.4741784037558686</v>
       </c>
       <c r="K18">
-        <v>0.05263157894736842</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01435406698564593</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05741626794258373</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1052631578947368</v>
+        <v>0.107981220657277</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01905487804878049</v>
+        <v>0.01915991156963891</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1836890243902439</v>
+        <v>0.1834929992630803</v>
       </c>
       <c r="I19">
-        <v>0.09070121951219512</v>
+        <v>0.09137803979366249</v>
       </c>
       <c r="J19">
-        <v>0.4253048780487805</v>
+        <v>0.4244657332350774</v>
       </c>
       <c r="K19">
-        <v>0.08384146341463415</v>
+        <v>0.08400884303610906</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01676829268292683</v>
+        <v>0.01621223286661754</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08536585365853659</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09527439024390244</v>
+        <v>0.09653647752394989</v>
       </c>
     </row>
   </sheetData>
